--- a/test/test_data.xlsx
+++ b/test/test_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program Files\xampp\htdocs\shiptrack\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6C2D898-86C1-4C06-8369-951A9E1D408B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5176A833-CD7D-4943-976A-7ED49319EEA4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{FA74C35B-7219-43C9-8E04-E7F52C939C48}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="129">
   <si>
     <t>TACTICAL_FIGURE</t>
   </si>
@@ -391,6 +391,33 @@
   </si>
   <si>
     <t>point 12</t>
+  </si>
+  <si>
+    <t>TACAN</t>
+  </si>
+  <si>
+    <t>VERTICAL_LINE_ARRAY_DIFAR</t>
+  </si>
+  <si>
+    <t>TELECOMMUNICATIONS_TOWER</t>
+  </si>
+  <si>
+    <t>2020-01-10 14:32:57.900</t>
+  </si>
+  <si>
+    <t>2020-01-10 14:32:57.901</t>
+  </si>
+  <si>
+    <t>2020-01-10 14:32:57.902</t>
+  </si>
+  <si>
+    <t>Point 123</t>
+  </si>
+  <si>
+    <t>Point 23</t>
+  </si>
+  <si>
+    <t>Point 87</t>
   </si>
 </sst>
 </file>
@@ -401,10 +428,16 @@
     <numFmt numFmtId="164" formatCode="#,##0.0000000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1405,10 +1438,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B5386DC-0A0F-494A-BC9D-1E8882C58A03}">
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1959,7 +1992,122 @@
         <v>114</v>
       </c>
     </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B15">
+        <v>114</v>
+      </c>
+      <c r="C15" t="s">
+        <v>126</v>
+      </c>
+      <c r="D15" s="2">
+        <v>90.3</v>
+      </c>
+      <c r="E15" s="1">
+        <v>160.38</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" t="s">
+        <v>28</v>
+      </c>
+      <c r="H15" t="s">
+        <v>120</v>
+      </c>
+      <c r="I15" t="b">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="s">
+        <v>82</v>
+      </c>
+      <c r="L15" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>80</v>
+      </c>
+      <c r="B16">
+        <v>115</v>
+      </c>
+      <c r="C16" t="s">
+        <v>127</v>
+      </c>
+      <c r="D16" s="2">
+        <v>92.4</v>
+      </c>
+      <c r="E16" s="1">
+        <v>150.94</v>
+      </c>
+      <c r="F16" s="3">
+        <v>0</v>
+      </c>
+      <c r="G16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H16" t="s">
+        <v>121</v>
+      </c>
+      <c r="I16" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="s">
+        <v>82</v>
+      </c>
+      <c r="L16" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>80</v>
+      </c>
+      <c r="B17">
+        <v>116</v>
+      </c>
+      <c r="C17" t="s">
+        <v>128</v>
+      </c>
+      <c r="D17" s="2">
+        <v>87.5</v>
+      </c>
+      <c r="E17" s="1">
+        <v>151.43</v>
+      </c>
+      <c r="F17" s="3">
+        <v>0</v>
+      </c>
+      <c r="G17" t="s">
+        <v>28</v>
+      </c>
+      <c r="H17" t="s">
+        <v>122</v>
+      </c>
+      <c r="I17" t="b">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>-1</v>
+      </c>
+      <c r="K17" t="s">
+        <v>82</v>
+      </c>
+      <c r="L17" t="s">
+        <v>125</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/test/test_data.xlsx
+++ b/test/test_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program Files\xampp\htdocs\shiptrack\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Private\My Projects\python\tracker\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5176A833-CD7D-4943-976A-7ED49319EEA4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8B2E8B0-F936-47E0-9E39-EA111AC1A741}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{FA74C35B-7219-43C9-8E04-E7F52C939C48}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{FA74C35B-7219-43C9-8E04-E7F52C939C48}"/>
   </bookViews>
   <sheets>
     <sheet name="tactical_figure" sheetId="1" r:id="rId1"/>
@@ -812,11 +812,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7E11DA0-4C9C-4C30-9126-693F30353463}">
   <dimension ref="A1:S11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="S2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="5" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2:A11"/>
+      <selection pane="bottomRight" activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1051,7 +1051,7 @@
         <v>1</v>
       </c>
       <c r="Q4" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="R4" t="s">
         <v>25</v>
@@ -1440,7 +1440,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B5386DC-0A0F-494A-BC9D-1E8882C58A03}">
   <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
